--- a/codesystems/addressNotValidated.xlsx
+++ b/codesystems/addressNotValidated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidhay/IG/registry/codesystems/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidhay/IG/NHI/codesystems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A966183D-CB3C-BD4F-993A-0C65158B4920}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A32FBC8-6DD7-984B-B995-0AB16B200AA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="2560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,13 +58,13 @@
     <t>The reason why the address was not validated</t>
   </si>
   <si>
-    <t>addressnotvalidated</t>
-  </si>
-  <si>
-    <t>http://standards.digital.health.nz/fhir/CodeSystem/addressnotvalidated</t>
-  </si>
-  <si>
-    <t>http://standards.digital.health.nz/fhir/ValueSet/addressnotvalidated</t>
+    <t>https://standards.digital.health.nz/fhir/cs/addressnotvalidated</t>
+  </si>
+  <si>
+    <t>https://standards.digital.health.nz/fhir/ValueSet/addressnotvalidated</t>
+  </si>
+  <si>
+    <t>AddressNotValidated</t>
   </si>
 </sst>
 </file>
@@ -919,24 +919,24 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">

--- a/codesystems/addressNotValidated.xlsx
+++ b/codesystems/addressNotValidated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidhay/IG/NHI/codesystems/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidhay/IG/registry/codesystems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A32FBC8-6DD7-984B-B995-0AB16B200AA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A966183D-CB3C-BD4F-993A-0C65158B4920}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="2560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,13 +58,13 @@
     <t>The reason why the address was not validated</t>
   </si>
   <si>
-    <t>https://standards.digital.health.nz/fhir/cs/addressnotvalidated</t>
-  </si>
-  <si>
-    <t>https://standards.digital.health.nz/fhir/ValueSet/addressnotvalidated</t>
-  </si>
-  <si>
-    <t>AddressNotValidated</t>
+    <t>addressnotvalidated</t>
+  </si>
+  <si>
+    <t>http://standards.digital.health.nz/fhir/CodeSystem/addressnotvalidated</t>
+  </si>
+  <si>
+    <t>http://standards.digital.health.nz/fhir/ValueSet/addressnotvalidated</t>
   </si>
 </sst>
 </file>
@@ -919,24 +919,24 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
